--- a/save/eis_sumer_ion_width_merg_v3_cross.xlsx
+++ b/save/eis_sumer_ion_width_merg_v3_cross.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjzhu/Desktop/Solar/EIS_2021/save/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAB89DB-5B46-FB46-9BC2-37DAD67EB8F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DAFA60-137B-F748-A5D0-7D9631B61719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="2020" windowWidth="27240" windowHeight="16440" xr2:uid="{3DCFD0CB-715A-2D4B-85DC-F643424B7CE8}"/>
+    <workbookView xWindow="14700" yWindow="1140" windowWidth="27240" windowHeight="16440" xr2:uid="{3DCFD0CB-715A-2D4B-85DC-F643424B7CE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -834,7 +834,7 @@
         <v>41.1</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>18.3</v>
       </c>
       <c r="I12" t="s">
         <v>9</v>
@@ -1211,7 +1211,7 @@
         <v>26</v>
       </c>
       <c r="G25">
-        <v>69</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="H25">
         <v>15</v>
